--- a/biology/Zoologie/Borneogomphus_teramotoi/Borneogomphus_teramotoi.xlsx
+++ b/biology/Zoologie/Borneogomphus_teramotoi/Borneogomphus_teramotoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Borneogomphus teramotoi, unique représentant du genre Borneogomphus, est une espèce monotypique de libellules de la famille des Gomphidae (sous-ordre des Anisoptères, ordre des Odonates)[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Borneogomphus teramotoi, unique représentant du genre Borneogomphus, est une espèce monotypique de libellules de la famille des Gomphidae (sous-ordre des Anisoptères, ordre des Odonates). 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se retrouve sur l'île de Bornéo.
 </t>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>H. Karube &amp; A. Sasamoto, 2014 : « Borneogomphus teramotoi, a new genus and species of Gomphid dragonfly from Borneo (Odonata : Gomphidae : Onychogomphinae) ». Tombo = Acta odonatologica Japonica, 福井 : 日本トンボ学会, vol. 56, 20 mai 2014, p. 65-72,  (ISSN 0495-8314).</t>
         </is>
